--- a/dados/historico/times/rodada_26/Goias.xlsx
+++ b/dados/historico/times/rodada_26/Goias.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,10 +729,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Matchweek 2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -900,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -917,10 +915,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Matchweek 4</t>
-        </is>
+      <c r="E3" t="n">
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>223</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1105,10 +1101,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matchweek 6</t>
-        </is>
+      <c r="E4" t="n">
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1293,10 +1287,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matchweek 9</t>
-        </is>
+      <c r="E5" t="n">
+        <v>9</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1481,10 +1473,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Matchweek 10</t>
-        </is>
+      <c r="E6" t="n">
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1669,10 +1659,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Matchweek 13</t>
-        </is>
+      <c r="E7" t="n">
+        <v>13</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1857,10 +1845,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Matchweek 15</t>
-        </is>
+      <c r="E8" t="n">
+        <v>15</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2026,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2043,10 +2029,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Matchweek 17</t>
-        </is>
+      <c r="E9" t="n">
+        <v>17</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2212,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2229,10 +2213,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Matchweek 18</t>
-        </is>
+      <c r="E10" t="n">
+        <v>18</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2398,7 +2380,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2415,10 +2397,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Matchweek 20</t>
-        </is>
+      <c r="E11" t="n">
+        <v>20</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2586,7 +2566,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2603,10 +2583,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Matchweek 22</t>
-        </is>
+      <c r="E12" t="n">
+        <v>22</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2772,7 +2750,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2789,10 +2767,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matchweek 24</t>
-        </is>
+      <c r="E13" t="n">
+        <v>24</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2958,7 +2934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2975,10 +2951,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matchweek 26</t>
-        </is>
+      <c r="E14" t="n">
+        <v>26</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3146,7 +3120,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3163,10 +3137,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Matchweek 25</t>
-        </is>
+      <c r="E15" t="n">
+        <v>25</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3334,7 +3306,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3351,10 +3323,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Matchweek 12</t>
-        </is>
+      <c r="E16" t="n">
+        <v>12</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3520,7 +3490,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3537,10 +3507,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Matchweek 23</t>
-        </is>
+      <c r="E17" t="n">
+        <v>23</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3706,7 +3674,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3723,10 +3691,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Matchweek 5</t>
-        </is>
+      <c r="E18" t="n">
+        <v>5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3894,7 +3860,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3911,10 +3877,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Matchweek 1</t>
-        </is>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4082,7 +4046,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4099,10 +4063,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Matchweek 8</t>
-        </is>
+      <c r="E20" t="n">
+        <v>8</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4270,7 +4232,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4287,10 +4249,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Matchweek 3</t>
-        </is>
+      <c r="E21" t="n">
+        <v>3</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4458,16 +4418,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-07-23</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4475,14 +4435,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Matchweek 21</t>
-        </is>
+      <c r="E22" t="n">
+        <v>16</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4492,11 +4450,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -4507,34 +4465,32 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="M22" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="N22" t="n">
-        <v>65</v>
-      </c>
-      <c r="O22" t="n">
-        <v>37316</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>35</v>
+        <v>6.3</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4543,119 +4499,119 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>-1.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>-1.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="AH22" t="n">
-        <v>11340</v>
+        <v>9217</v>
       </c>
       <c r="AI22" t="n">
-        <v>3370</v>
+        <v>2789</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AM22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>69</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
         <v>17</v>
       </c>
-      <c r="AN22" t="n">
-        <v>54</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>77</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>33</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>35</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX22" t="n">
+      <c r="AY22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB22" t="n">
         <v>5</v>
       </c>
-      <c r="AY22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>14</v>
-      </c>
       <c r="BC22" t="n">
         <v>0</v>
       </c>
       <c r="BD22" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-07-09</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4663,14 +4619,12 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Matchweek 14</t>
-        </is>
+      <c r="E23" t="n">
+        <v>21</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -4680,168 +4634,170 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N23" t="n">
+        <v>65</v>
+      </c>
+      <c r="O23" t="n">
+        <v>37316</v>
+      </c>
+      <c r="P23" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>35</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
         <v>4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="AC23" t="n">
         <v>3</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Goias</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N23" t="n">
-        <v>34</v>
-      </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="AD23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11340</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>3370</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>54</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>77</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>33</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB23" t="n">
         <v>14</v>
       </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>3766</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1550</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>9</v>
-      </c>
       <c r="BC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Corinthians</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-07-23</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4849,10 +4805,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Matchweek 16</t>
-        </is>
+      <c r="E24" t="n">
+        <v>14</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -4866,14 +4820,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -4881,144 +4835,144 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="N24" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>6.3</v>
+        <v>35.7</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>-1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AH24" t="n">
-        <v>9217</v>
+        <v>3766</v>
       </c>
       <c r="AI24" t="n">
-        <v>2789</v>
+        <v>1550</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX24" t="n">
         <v>13</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AY24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>5</v>
       </c>
-      <c r="AQ24" t="n">
-        <v>69</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>12</v>
-      </c>
       <c r="BA24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5035,10 +4989,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Matchweek 7</t>
-        </is>
+      <c r="E25" t="n">
+        <v>7</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5206,7 +5158,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5223,10 +5175,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Matchweek 11</t>
-        </is>
+      <c r="E26" t="n">
+        <v>11</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5394,7 +5344,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5411,10 +5361,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Matchweek 19</t>
-        </is>
+      <c r="E27" t="n">
+        <v>19</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/dados/historico/times/rodada_26/Goias.xlsx
+++ b/dados/historico/times/rodada_26/Goias.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>443</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>445</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>447</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>451</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>18</v>
+        <v>454</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>22</v>
+        <v>458</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>24</v>
+        <v>459</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>27</v>
+        <v>461</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>29</v>
+        <v>463</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>31</v>
+        <v>465</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>33</v>
+        <v>467</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>30</v>
+        <v>357</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>511</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
